--- a/biology/Botanique/Pterocarpus_indicus/Pterocarpus_indicus.xlsx
+++ b/biology/Botanique/Pterocarpus_indicus/Pterocarpus_indicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus indicus est un arbre de la famille des Fabacées, appelé aussi amboine (du nom de l'île où il a été découvert), bois de rose de Birmanie, santal rouge, ou sang-dragon. Son bois est utilisé en coutellerie d'art, notamment sa loupe, pour les manches des couteaux et pour le plaquage au début du XXe siècle, notamment à l'époque art déco.
-C'est l'arbre officiel de la province de Phuket, en Thaïlande. C'est aussi l'arbre urbain le plus présent et le plus planté à Bangkok, ce qui est une source de risque d'épidémie en cas d'apparition de phytopathogène hautement pathogène pour l'espèce[2].
+C'est l'arbre officiel de la province de Phuket, en Thaïlande. C'est aussi l'arbre urbain le plus présent et le plus planté à Bangkok, ce qui est une source de risque d'épidémie en cas d'apparition de phytopathogène hautement pathogène pour l'espèce.
 </t>
         </is>
       </c>
